--- a/biology/Médecine/Henry_(film,_2011,_England)/Henry_(film,_2011,_England).xlsx
+++ b/biology/Médecine/Henry_(film,_2011,_England)/Henry_(film,_2011,_England).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Henry est un film québécois de court métrage réalisé par Yan England, sorti en 2011. 
-Ce film, qui traite de la maladie d'Alzheimer, a été nommé aux Oscars 2013[1],[2].
+Ce film, qui traite de la maladie d'Alzheimer, a été nommé aux Oscars 2013,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry est un pianiste âgé de 84 ans marié à une violoniste prénommée Maria. S'arrêtant prendre un café, il rencontre une femme ainsi qu'un homme qui lui annonce que Maria est en danger.
 Sa vie se voit alors bouleversée. Une série de retours en arrière lui font retrouver les étapes cruciales de sa vie alors qu'il doit passer au travers de sa maladie d'Alzheimer.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distribution : Gonella Productions</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Poirier - Henry
 Louise Laprade - Maria
